--- a/Table_after.xlsx
+++ b/Table_after.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="77">
   <si>
     <t>Name</t>
   </si>
@@ -125,10 +125,10 @@
     <t>bluex_wrapper</t>
   </si>
   <si>
-    <t>1482</t>
-  </si>
-  <si>
-    <t>1382</t>
+    <t>1528</t>
+  </si>
+  <si>
+    <t>1376</t>
   </si>
   <si>
     <t>384</t>
@@ -137,52 +137,103 @@
     <t>0</t>
   </si>
   <si>
-    <t>241</t>
+    <t>208</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>bluex_i (bluex)</t>
   </si>
   <si>
+    <t>wrapper_mem_0 (bluex_wrapper_mem_0_0)</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>inst (wrapper_mem)</t>
+  </si>
+  <si>
+    <t>util_vector_logic_2 (bluex_util_vector_logic_0_1)</t>
+  </si>
+  <si>
+    <t>util_vector_logic_1 (bluex_util_vector_logic_1_0)</t>
+  </si>
+  <si>
+    <t>util_vector_logic_0 (bluex_util_vector_logic_0_0)</t>
+  </si>
+  <si>
+    <t>reg_wb_0 (bluex_reg_wb_0_0)</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>inst (reg_wb)</t>
+  </si>
+  <si>
+    <t>reg_heap_id_0 (bluex_reg_heap_id_0_0)</t>
+  </si>
+  <si>
+    <t>927</t>
+  </si>
+  <si>
+    <t>1036</t>
+  </si>
+  <si>
+    <t>inst (reg_heap_id)</t>
+  </si>
+  <si>
+    <t>redirection_0 (bluex_redirection_0_0)</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>demux_id_0 (bluex_demux_id_0_0)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>inst (demux_id)</t>
+  </si>
+  <si>
+    <t>controller_id_0 (bluex_controller_id_0_0)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>inst (controller_id)</t>
+  </si>
+  <si>
+    <t>aux_id_0 (bluex_aux_id_0_0)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>inst (aux_id)</t>
+  </si>
+  <si>
     <t>alu_ex_0 (bluex_alu_ex_0_0)</t>
   </si>
   <si>
-    <t>479</t>
+    <t>510</t>
   </si>
   <si>
     <t>133</t>
   </si>
   <si>
-    <t>inst (bluex_alu_ex_0_0_alu_ex)</t>
-  </si>
-  <si>
-    <t>aux_id_0 (bluex_aux_id_0_0)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>inst (bluex_aux_id_0_0_aux_id)</t>
-  </si>
-  <si>
-    <t>controller_id_0 (bluex_controller_id_0_0)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>inst (bluex_controller_id_0_0_controller_id)</t>
-  </si>
-  <si>
-    <t>demux_id_0 (bluex_demux_id_0_0)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>inst (bluex_demux_id_0_0_demux_id)</t>
+    <t>inst (alu_ex)</t>
   </si>
   <si>
     <t>PC_0 (bluex_PC_0_0)</t>
@@ -191,61 +242,7 @@
     <t>19</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>inst (bluex_PC_0_0_PC)</t>
-  </si>
-  <si>
-    <t>redirection_0 (bluex_redirection_0_0)</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>reg_heap_id_0 (bluex_reg_heap_id_0_0)</t>
-  </si>
-  <si>
-    <t>926</t>
-  </si>
-  <si>
-    <t>1036</t>
-  </si>
-  <si>
-    <t>inst (bluex_reg_heap_id_0_0_reg_heap_id)</t>
-  </si>
-  <si>
-    <t>reg_wb_0 (bluex_reg_wb_0_0)</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>inst (bluex_reg_wb_0_0_reg_wb)</t>
-  </si>
-  <si>
-    <t>util_vector_logic_0 (bluex_util_vector_logic_0_0)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>util_vector_logic_1 (bluex_util_vector_logic_1_0)</t>
-  </si>
-  <si>
-    <t>util_vector_logic_2 (bluex_util_vector_logic_0_1)</t>
-  </si>
-  <si>
-    <t>wrapper_mem_0 (bluex_wrapper_mem_0_0)</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>inst (bluex_wrapper_mem_0_0_wrapper_mem)</t>
+    <t>inst (PC)</t>
   </si>
 </sst>
 </file>
@@ -535,7 +532,7 @@
         <v>40</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W2" t="s" s="2">
         <v>40</v>
@@ -582,7 +579,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s" s="2">
         <v>37</v>
@@ -692,10 +689,10 @@
     </row>
     <row r="4" outlineLevel="2">
       <c r="A4" t="s" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>45</v>
@@ -805,7 +802,7 @@
         <v>46</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>45</v>
@@ -915,117 +912,117 @@
         <v>47</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" outlineLevel="2">
+      <c r="A7" t="s" s="4">
         <v>48</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" outlineLevel="3">
-      <c r="A7" t="s" s="5">
-        <v>49</v>
-      </c>
       <c r="B7" t="s" s="2">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>40</v>
@@ -1132,123 +1129,123 @@
     </row>
     <row r="8" outlineLevel="2">
       <c r="A8" t="s" s="4">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" outlineLevel="2">
+      <c r="A9" t="s" s="4">
         <v>50</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" outlineLevel="3">
-      <c r="A9" t="s" s="5">
-        <v>52</v>
       </c>
       <c r="B9" t="s" s="2">
         <v>51</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>40</v>
@@ -1350,345 +1347,345 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" outlineLevel="2">
-      <c r="A10" t="s" s="4">
+    <row r="10" outlineLevel="3">
+      <c r="A10" t="s" s="5">
         <v>53</v>
       </c>
       <c r="B10" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" outlineLevel="2">
+      <c r="A11" t="s" s="4">
         <v>54</v>
       </c>
-      <c r="C10" t="s" s="2">
+      <c r="B11" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="D10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
+      <c r="C11" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="11" outlineLevel="3">
-      <c r="A11" t="s" s="5">
+    <row r="12" outlineLevel="3">
+      <c r="A12" t="s" s="5">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="B11" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="D12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="12" outlineLevel="2">
-      <c r="A12" t="s" s="4">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s" s="2">
+    <row r="13" outlineLevel="2">
+      <c r="A13" t="s" s="4">
         <v>58</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="B13" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="D12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" outlineLevel="3">
-      <c r="A13" t="s" s="5">
-        <v>60</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>58</v>
-      </c>
       <c r="C13" t="s" s="2">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>40</v>
@@ -1792,14 +1789,14 @@
     </row>
     <row r="14" outlineLevel="2">
       <c r="A14" t="s" s="4">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="C14" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="D14" t="s" s="2">
         <v>40</v>
       </c>
@@ -1900,452 +1897,452 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" outlineLevel="2">
-      <c r="A15" t="s" s="4">
+    <row r="15" outlineLevel="3">
+      <c r="A15" t="s" s="5">
         <v>63</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" outlineLevel="2">
+      <c r="A16" t="s" s="4">
         <v>64</v>
       </c>
-      <c r="C15" t="s" s="2">
+      <c r="B16" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="D15" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="C16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="16" outlineLevel="3">
-      <c r="A16" t="s" s="5">
+    <row r="17" outlineLevel="3">
+      <c r="A17" t="s" s="5">
         <v>66</v>
       </c>
-      <c r="B16" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C16" t="s" s="2">
+      <c r="B17" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="D16" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="C17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="17" outlineLevel="2">
-      <c r="A17" t="s" s="4">
+    <row r="18" outlineLevel="2">
+      <c r="A18" t="s" s="4">
         <v>67</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" outlineLevel="3">
-      <c r="A18" t="s" s="5">
-        <v>70</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>68</v>
       </c>
       <c r="C18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" outlineLevel="3">
+      <c r="A19" t="s" s="5">
         <v>69</v>
       </c>
-      <c r="D18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" outlineLevel="2">
-      <c r="A19" t="s" s="4">
-        <v>71</v>
-      </c>
       <c r="B19" t="s" s="2">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>40</v>
@@ -2452,123 +2449,123 @@
     </row>
     <row r="20" outlineLevel="2">
       <c r="A20" t="s" s="4">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" outlineLevel="3">
+      <c r="A21" t="s" s="5">
         <v>73</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Q20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" outlineLevel="2">
-      <c r="A21" t="s" s="4">
-        <v>74</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>40</v>
@@ -2672,13 +2669,13 @@
     </row>
     <row r="22" outlineLevel="2">
       <c r="A22" t="s" s="4">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="B22" t="s" s="2">
-        <v>72</v>
-      </c>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>40</v>
@@ -2782,13 +2779,13 @@
     </row>
     <row r="23" outlineLevel="3">
       <c r="A23" t="s" s="5">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>40</v>
